--- a/distribution/data/sql_metadata.xlsx
+++ b/distribution/data/sql_metadata.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikea\Desktop\Developer\Projects\Personal\Current\metadata_manager\distribution\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB6D3E0F-D6B2-40FC-87E0-DD02BE8D36BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DD7B0B-2129-4D75-8E9E-EC015F60303C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{DEC871D4-C596-4741-A8B8-405EB92E9456}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="18000" windowHeight="9165" xr2:uid="{DEC871D4-C596-4741-A8B8-405EB92E9456}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PI_METADATA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
